--- a/Finflux Automation Excels/Client/3045-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3045-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -223,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +252,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -306,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -327,33 +340,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -369,6 +361,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +733,7 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>42078</v>
       </c>
     </row>
@@ -757,22 +760,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -870,67 +873,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.7109375" style="21" customWidth="1"/>
-    <col min="18" max="16384" width="13.85546875" style="21"/>
+    <col min="1" max="1" width="3" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.7109375" style="12" customWidth="1"/>
+    <col min="18" max="16384" width="13.85546875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1580,38 +1583,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -1865,54 +1868,54 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>42005</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>42005</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1932,145 +1935,145 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="24"/>
-    <col min="3" max="3" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="15"/>
+    <col min="6" max="6" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="16">
         <v>3539</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="17">
         <v>42078</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="16">
         <v>3540</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="17">
         <v>42078</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="16">
         <v>3541</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="17">
         <v>42078</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="16">
         <v>3542</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="17">
         <v>42078</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2084,382 +2087,404 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="9"/>
-    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="21">
         <v>3787</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="22">
         <v>42036</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="21">
         <v>3788</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="22">
         <v>42036</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="21">
         <v>3787</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <v>42036</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="21">
         <v>3788</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <v>42036</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="21">
         <v>3789</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="22">
         <v>42036</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="21">
         <v>3790</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="22">
         <v>42036</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="21" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21"/>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="21">
         <v>3807</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="22">
         <v>42078</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="21">
         <v>3808</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <v>42078</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="21">
         <v>3809</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="22">
         <v>42078</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="21">
         <v>3810</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="22">
         <v>42078</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="21" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="21"/>
+    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="21">
         <v>3811</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="22">
         <v>42095</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="21">
         <v>3812</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="22">
         <v>42095</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="21" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/3045-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3045-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -223,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,19 +252,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -319,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -340,12 +327,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -361,17 +369,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +730,7 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>42078</v>
       </c>
     </row>
@@ -760,22 +757,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -873,67 +870,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.7109375" style="12" customWidth="1"/>
-    <col min="18" max="16384" width="13.85546875" style="12"/>
+    <col min="1" max="1" width="3" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.7109375" style="21" customWidth="1"/>
+    <col min="18" max="16384" width="13.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13" t="s">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1583,38 +1580,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -1868,54 +1865,54 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>42005</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>42005</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1935,145 +1932,145 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="15"/>
-    <col min="3" max="3" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="15"/>
-    <col min="6" max="6" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="25">
         <v>3539</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="26">
         <v>42078</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="25">
         <v>3540</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="26">
         <v>42078</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="25">
         <v>3541</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="26">
         <v>42078</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="25">
         <v>3542</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="26">
         <v>42078</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2087,404 +2084,382 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>3787</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>42036</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>3788</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>42036</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="21"/>
+    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="15">
         <v>3787</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>42036</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="15">
         <v>3788</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>42036</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="15">
         <v>3789</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>42036</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="15">
         <v>3790</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>42036</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="21"/>
-    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="17">
         <v>3807</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>42078</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="17">
         <v>3808</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>42078</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="17">
         <v>3809</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>42078</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="17">
         <v>3810</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <v>42078</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="21"/>
-    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>3811</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="20">
         <v>42095</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>3812</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="20">
         <v>42095</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="19" t="s">
         <v>63</v>
       </c>
     </row>
